--- a/Forensics/400_Hidden_Flag/対応表.xlsx
+++ b/Forensics/400_Hidden_Flag/対応表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyat\Desktop\github\MaidakeCTF2019\Forensics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyat\Desktop\github\MaidakeCTF2019\Forensics\400_Hidden_Flag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4FCC15-AFB1-431B-AC84-0A028227D7D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD032EC-720E-45EF-9E5E-31A27099D043}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06B0A31B-3C63-4830-9AEA-617A5A1DC05D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>.</t>
     <phoneticPr fontId="1"/>
@@ -253,11 +253,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G＼B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スペース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B＼G</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,6 +603,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,33 +640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,7 +959,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5">
         <v>0</v>
@@ -992,323 +992,323 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>9</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>58</v>
       </c>
     </row>
